--- a/租金通知书/2016-12/12月应收.xlsx
+++ b/租金通知书/2016-12/12月应收.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="131">
   <si>
     <t>中油金鸿能源投资股份有限公司</t>
   </si>
@@ -190,9 +190,6 @@
     <t>EGIC-HZL-RQFD0320160422</t>
   </si>
   <si>
-    <t>郑州燃气发电</t>
-  </si>
-  <si>
     <t>EGIC-HZL-RQFD0320160422-1</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>EGIC-HZL-LAHN05150323-1</t>
   </si>
   <si>
-    <t>中国神华煤制油化工有限公司新疆煤化工分公司</t>
-  </si>
-  <si>
     <t>EGIC-HZL-ZGSH031510612</t>
   </si>
   <si>
@@ -342,10 +336,6 @@
   </si>
   <si>
     <t>实际合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EGIC-HZL-TJLG0820160623</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,15 +428,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>没有合同签订日期，询问项目经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统中收款银行是否维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGIC-HZL-TJLG0820160623</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGIC-HZL-ZFLY08121130-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGIC-HZL-RQFD0320160422-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州燃气发电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国神华煤制油化工有限公司新疆煤化工分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神华煤制油</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -896,43 +906,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -961,14 +971,14 @@
         <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -998,14 +1008,14 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -1035,14 +1045,14 @@
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -1072,14 +1082,14 @@
         <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M5" s="1"/>
     </row>
@@ -1109,14 +1119,14 @@
         <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -1143,20 +1153,20 @@
         <v>42721</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="8" t="s">
-        <v>126</v>
+      <c r="K7" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1185,14 +1195,14 @@
         <v>31</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M8" s="1"/>
     </row>
@@ -1204,7 +1214,7 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>35</v>
@@ -1222,14 +1232,14 @@
         <v>35</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -1256,17 +1266,17 @@
         <v>42724</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -1293,22 +1303,22 @@
         <v>42724</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1337,14 +1347,14 @@
         <v>47</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -1374,14 +1384,14 @@
         <v>52</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M13" s="1"/>
     </row>
@@ -1408,19 +1418,19 @@
         <v>42724</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M14" s="1"/>
     </row>
@@ -1432,10 +1442,10 @@
         <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
@@ -1447,32 +1457,32 @@
         <v>42725</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
@@ -1484,32 +1494,32 @@
         <v>42726</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>17</v>
@@ -1521,32 +1531,32 @@
         <v>42727</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -1558,20 +1568,20 @@
         <v>42727</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1579,13 +1589,13 @@
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
@@ -1597,17 +1607,17 @@
         <v>42732</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M19" s="1"/>
     </row>
@@ -1616,13 +1626,13 @@
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -1634,32 +1644,32 @@
         <v>42732</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>13</v>
@@ -1671,32 +1681,32 @@
         <v>42732</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>48</v>
@@ -1708,20 +1718,20 @@
         <v>42734</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/租金通知书/2016-12/12月应收.xlsx
+++ b/租金通知书/2016-12/12月应收.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -91,9 +94,6 @@
     <t>EGIC-HZL-ZFLY08121130</t>
   </si>
   <si>
-    <t>兆丰铝业</t>
-  </si>
-  <si>
     <t>EGIC-HZL-ZFLY08121130-1</t>
   </si>
   <si>
@@ -457,6 +457,10 @@
   </si>
   <si>
     <t>神华煤制油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兆丰铝业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -906,116 +910,116 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4">
-        <v>27565979.202</v>
-      </c>
-      <c r="G2" s="5">
-        <v>42707</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="1"/>
+      <c r="A2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1193516.75</v>
+      </c>
+      <c r="G2" s="10">
+        <v>42732</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
       <c r="K2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M2" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4">
-        <v>22872794.699999999</v>
+        <v>28864471.829999998</v>
       </c>
       <c r="G3" s="5">
         <v>42720</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M3" s="1"/>
     </row>
@@ -1024,35 +1028,35 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4">
-        <v>28938678.918000001</v>
+        <v>22872794.699999999</v>
       </c>
       <c r="G4" s="5">
         <v>42720</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M4" s="1"/>
     </row>
@@ -1061,355 +1065,357 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4">
-        <v>28864471.829999998</v>
+        <v>28938678.918000001</v>
       </c>
       <c r="G5" s="5">
         <v>42720</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4">
-        <v>26632812.5</v>
+        <v>4855355.5599999996</v>
       </c>
       <c r="G6" s="5">
-        <v>42720</v>
+        <v>42724</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M6" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4">
-        <v>85375000</v>
+        <v>6003472.2199999997</v>
       </c>
       <c r="G7" s="5">
-        <v>42721</v>
+        <v>42727</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>123</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" s="4">
-        <v>3210783.33</v>
+        <v>5066062.5</v>
       </c>
       <c r="G8" s="5">
         <v>42724</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4">
-        <v>5066062.5</v>
+        <v>6193055.5599999996</v>
       </c>
       <c r="G9" s="5">
-        <v>42724</v>
+        <v>42732</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4">
-        <v>22811409.721999999</v>
+        <v>6193055.5599999996</v>
       </c>
       <c r="G10" s="5">
-        <v>42724</v>
+        <v>42732</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F11" s="4">
-        <v>4855355.5599999996</v>
+        <v>26531965.66</v>
       </c>
       <c r="G11" s="5">
-        <v>42724</v>
+        <v>42727</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="F12" s="4">
-        <v>7431666.6670000004</v>
+        <v>16968602.739999998</v>
       </c>
       <c r="G12" s="5">
-        <v>42724</v>
+        <v>42734</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>121</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4">
-        <v>87966.67</v>
+        <v>7431666.6670000004</v>
       </c>
       <c r="G13" s="5">
         <v>42724</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4">
         <v>6922668.75</v>
@@ -1418,323 +1424,326 @@
         <v>42724</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="4">
-        <v>1129253.1200000001</v>
+        <v>22811409.721999999</v>
       </c>
       <c r="G15" s="5">
-        <v>42725</v>
+        <v>42724</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>104</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F16" s="4">
-        <v>8659001.1500000004</v>
+        <v>87966.67</v>
       </c>
       <c r="G16" s="5">
-        <v>42726</v>
+        <v>42724</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F17" s="4">
-        <v>6003472.2199999997</v>
+        <v>3210783.33</v>
       </c>
       <c r="G17" s="5">
-        <v>42727</v>
+        <v>42724</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="4">
-        <v>26531965.66</v>
+        <v>26632812.5</v>
       </c>
       <c r="G18" s="5">
-        <v>42727</v>
+        <v>42720</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4">
-        <v>6193055.5599999996</v>
+        <v>85375000</v>
       </c>
       <c r="G19" s="5">
-        <v>42732</v>
+        <v>42721</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F20" s="4">
-        <v>6193055.5599999996</v>
+        <v>1129253.1200000001</v>
       </c>
       <c r="G20" s="5">
-        <v>42732</v>
+        <v>42725</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1193516.75</v>
-      </c>
-      <c r="G21" s="10">
-        <v>42732</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
+        <v>121</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="4">
+        <v>8659001.1500000004</v>
+      </c>
+      <c r="G21" s="5">
+        <v>42726</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>113</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F22" s="4">
-        <v>16968602.739999998</v>
+        <v>27565979.202</v>
       </c>
       <c r="G22" s="5">
-        <v>42734</v>
+        <v>42707</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M22" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M1">
+    <sortState ref="A2:M22">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/租金通知书/2016-12/12月应收.xlsx
+++ b/租金通知书/2016-12/12月应收.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="133">
   <si>
     <t>中油金鸿能源投资股份有限公司</t>
   </si>
@@ -25,9 +25,6 @@
     <t>EGIC-HZL-ZYJH03131105</t>
   </si>
   <si>
-    <t>中油金鸿</t>
-  </si>
-  <si>
     <t>EGIC-HZL-ZYJH03131105-1</t>
   </si>
   <si>
@@ -404,10 +401,6 @@
   </si>
   <si>
     <t>EGIC-HZL-TM-03160425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潞安集团一期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -462,6 +455,21 @@
   <si>
     <t>兆丰铝业</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中油金鸿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安集团一期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潞安集团二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGIC-HZL-LAJT05160429-ZJ</t>
   </si>
 </sst>
 </file>
@@ -885,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -900,7 +908,7 @@
     <col min="5" max="5" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="6" customWidth="1"/>
     <col min="9" max="9" width="36.6640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="26" style="6" customWidth="1"/>
     <col min="11" max="11" width="27.77734375" style="6" customWidth="1"/>
@@ -910,60 +918,60 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="9">
         <v>1193516.75</v>
@@ -972,35 +980,35 @@
         <v>42732</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F3" s="4">
         <v>28864471.829999998</v>
@@ -1009,35 +1017,35 @@
         <v>42720</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="F4" s="4">
         <v>22872794.699999999</v>
@@ -1046,35 +1054,35 @@
         <v>42720</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F5" s="4">
         <v>28938678.918000001</v>
@@ -1083,35 +1091,35 @@
         <v>42720</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="4">
         <v>4855355.5599999996</v>
@@ -1120,39 +1128,39 @@
         <v>42724</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4">
         <v>6003472.2199999997</v>
@@ -1161,35 +1169,35 @@
         <v>42727</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4">
         <v>5066062.5</v>
@@ -1198,35 +1206,35 @@
         <v>42724</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="4">
         <v>6193055.5599999996</v>
@@ -1235,35 +1243,35 @@
         <v>42732</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="4">
         <v>6193055.5599999996</v>
@@ -1272,35 +1280,35 @@
         <v>42732</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4">
         <v>26531965.66</v>
@@ -1309,37 +1317,37 @@
         <v>42727</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="4">
         <v>16968602.739999998</v>
@@ -1348,37 +1356,37 @@
         <v>42734</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F13" s="4">
         <v>7431666.6670000004</v>
@@ -1387,35 +1395,35 @@
         <v>42724</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" s="4">
         <v>6922668.75</v>
@@ -1424,37 +1432,37 @@
         <v>42724</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="4">
         <v>22811409.721999999</v>
@@ -1463,35 +1471,35 @@
         <v>42724</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="4">
         <v>87966.67</v>
@@ -1500,35 +1508,35 @@
         <v>42724</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F17" s="4">
         <v>3210783.33</v>
@@ -1537,35 +1545,35 @@
         <v>42724</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F18" s="4">
         <v>26632812.5</v>
@@ -1574,35 +1582,35 @@
         <v>42720</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="F19" s="4">
         <v>85375000</v>
@@ -1611,37 +1619,37 @@
         <v>42721</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="4">
         <v>1129253.1200000001</v>
@@ -1650,35 +1658,35 @@
         <v>42725</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="4">
         <v>8659001.1500000004</v>
@@ -1687,17 +1695,17 @@
         <v>42726</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M21" s="1"/>
     </row>
@@ -1709,13 +1717,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F22" s="4">
         <v>27565979.202</v>
@@ -1724,19 +1732,39 @@
         <v>42707</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3716666.67</v>
+      </c>
+      <c r="G23" s="5">
+        <v>42724</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M1">

--- a/租金通知书/2016-12/12月应收.xlsx
+++ b/租金通知书/2016-12/12月应收.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="135">
   <si>
     <t>中油金鸿能源投资股份有限公司</t>
   </si>
@@ -470,6 +470,14 @@
   </si>
   <si>
     <t>EGIC-HZL-LAJT05160429-ZJ</t>
+  </si>
+  <si>
+    <t>第1期租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EGIC-HZL-TJLG0820160623-补2-F1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -893,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1146,70 +1154,74 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="F7" s="4">
-        <v>6003472.2199999997</v>
+        <v>87769.89</v>
       </c>
       <c r="G7" s="5">
-        <v>42727</v>
+        <v>42724</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J7" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>119</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="11" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4">
-        <v>5066062.5</v>
+        <v>6003472.2199999997</v>
       </c>
       <c r="G8" s="5">
-        <v>42724</v>
+        <v>42727</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
@@ -1225,28 +1237,28 @@
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4">
-        <v>6193055.5599999996</v>
+        <v>5066062.5</v>
       </c>
       <c r="G9" s="5">
-        <v>42732</v>
+        <v>42724</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
@@ -1262,13 +1274,13 @@
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -1280,10 +1292,10 @@
         <v>42732</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
@@ -1296,31 +1308,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F11" s="4">
-        <v>26531965.66</v>
+        <v>6193055.5599999996</v>
       </c>
       <c r="G11" s="5">
-        <v>42727</v>
+        <v>42732</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
@@ -1329,37 +1341,35 @@
       <c r="L11" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F12" s="4">
-        <v>16968602.739999998</v>
+        <v>26531965.66</v>
       </c>
       <c r="G12" s="5">
-        <v>42734</v>
+        <v>42727</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -1374,31 +1384,31 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="4">
-        <v>7431666.6670000004</v>
+        <v>16968602.739999998</v>
       </c>
       <c r="G13" s="5">
-        <v>42724</v>
+        <v>42734</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
@@ -1407,39 +1417,39 @@
       <c r="L13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4">
-        <v>6922668.75</v>
+        <v>7431666.6670000004</v>
       </c>
       <c r="G14" s="5">
         <v>42724</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
         <v>119</v>
       </c>
@@ -1453,30 +1463,32 @@
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F15" s="4">
-        <v>22811409.721999999</v>
+        <v>6922668.75</v>
       </c>
       <c r="G15" s="5">
         <v>42724</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="K15" s="1" t="s">
         <v>119</v>
       </c>
@@ -1487,31 +1499,31 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F16" s="4">
-        <v>87966.67</v>
+        <v>22811409.721999999</v>
       </c>
       <c r="G16" s="5">
         <v>42724</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
@@ -1524,31 +1536,31 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="4">
-        <v>3210783.33</v>
+        <v>87966.67</v>
       </c>
       <c r="G17" s="5">
         <v>42724</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
@@ -1561,31 +1573,31 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F18" s="4">
-        <v>26632812.5</v>
+        <v>3210783.33</v>
       </c>
       <c r="G18" s="5">
-        <v>42720</v>
+        <v>42724</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
@@ -1598,31 +1610,31 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F19" s="4">
-        <v>85375000</v>
+        <v>26632812.5</v>
       </c>
       <c r="G19" s="5">
-        <v>42721</v>
+        <v>42720</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
@@ -1631,36 +1643,36 @@
       <c r="L19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F20" s="4">
-        <v>1129253.1200000001</v>
+        <v>85375000</v>
       </c>
       <c r="G20" s="5">
-        <v>42725</v>
+        <v>42721</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>119</v>
@@ -1668,38 +1680,36 @@
       <c r="L20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F21" s="4">
-        <v>8659001.1500000004</v>
+        <v>1129253.1200000001</v>
       </c>
       <c r="G21" s="5">
-        <v>42726</v>
+        <v>42725</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
         <v>119</v>
@@ -1707,35 +1717,37 @@
       <c r="L21" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="F22" s="4">
-        <v>27565979.202</v>
+        <v>8659001.1500000004</v>
       </c>
       <c r="G22" s="5">
-        <v>42707</v>
+        <v>42726</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
@@ -1748,21 +1760,58 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F23" s="4">
+        <v>27565979.202</v>
+      </c>
+      <c r="G23" s="5">
+        <v>42707</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
         <v>3716666.67</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <v>42724</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>132</v>
       </c>
     </row>
